--- a/source/source.xlsx
+++ b/source/source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\wecar\source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\wecar\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3367D782-DB45-4ACF-B20E-B39905EDD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E248B6-C004-4FD7-B3B4-A1FD36514104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D0D4A28-9C98-43E5-A704-1508D3CF9126}"/>
   </bookViews>
@@ -594,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -604,23 +604,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -631,6 +619,19 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -947,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E438FC-4BAC-4F89-A6B5-4F8919550379}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -961,936 +962,936 @@
     <col min="6" max="6" width="35.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="24" t="str">
-        <f>"goods_chk_"&amp;B1&amp;"_comment"</f>
+      <c r="C1" s="20" t="str">
+        <f t="shared" ref="C1:C34" si="0">"goods_chk_"&amp;B1&amp;"_comment"</f>
         <v>goods_chk_alloy_comment</v>
       </c>
-      <c r="D1" s="24" t="str">
-        <f>"chk_"&amp;B1</f>
+      <c r="D1" s="20" t="str">
+        <f t="shared" ref="D1:D34" si="1">"chk_"&amp;B1</f>
         <v>chk_alloy</v>
       </c>
-      <c r="E1" s="24" t="str">
-        <f>"'"&amp;B1&amp;"'"</f>
+      <c r="E1" s="20" t="str">
+        <f t="shared" ref="E1:E34" si="2">"'"&amp;B1&amp;"'"</f>
         <v>'alloy'</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="18" t="str">
+      <c r="G1" s="14" t="str">
         <f>"&lt;input type='hidden' name='com_"&amp;B1&amp;"_comment_&lt;?php echo $row_"&amp;B1&amp;"['goods_chk_"&amp;B1&amp;"_id']; ?&gt;' id='com_"&amp;B1&amp;"_comment_&lt;?php echo $row_"&amp;B1&amp;"['goods_chk_"&amp;B1&amp;"_id']; ?&gt;' value=''&gt;"</f>
         <v>&lt;input type='hidden' name='com_alloy_comment_&lt;?php echo $row_alloy['goods_chk_alloy_id']; ?&gt;' id='com_alloy_comment_&lt;?php echo $row_alloy['goods_chk_alloy_id']; ?&gt;' value=''&gt;</v>
       </c>
-      <c r="H1" s="20"/>
-    </row>
-    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="H1" s="16"/>
+    </row>
+    <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="18" t="str">
-        <f>"goods_chk_"&amp;B2&amp;"_comment"</f>
+      <c r="C2" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_car_brand_symbol_comment</v>
       </c>
-      <c r="D2" s="18" t="str">
-        <f>"chk_"&amp;B2</f>
+      <c r="D2" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_car_brand_symbol</v>
       </c>
-      <c r="E2" s="18" t="str">
-        <f>"'"&amp;B2&amp;"'"</f>
+      <c r="E2" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'car_brand_symbol'</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="18" t="str">
-        <f t="shared" ref="G2:G34" si="0">"&lt;input type='hidden' name='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' id='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' value=''&gt;"</f>
+      <c r="G2" s="14" t="str">
+        <f t="shared" ref="G2:G34" si="3">"&lt;input type='hidden' name='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' id='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' value=''&gt;"</f>
         <v>&lt;input type='hidden' name='com_car_brand_symbol_comment_&lt;?php echo $row_car_brand_symbol['goods_chk_car_brand_symbol_id']; ?&gt;' id='com_car_brand_symbol_comment_&lt;?php echo $row_car_brand_symbol['goods_chk_car_brand_symbol_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="18" t="str">
-        <f>"goods_chk_"&amp;B3&amp;"_comment"</f>
+      <c r="C3" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_car_door_comment</v>
       </c>
-      <c r="D3" s="18" t="str">
-        <f>"chk_"&amp;B3</f>
+      <c r="D3" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_car_door</v>
       </c>
-      <c r="E3" s="18" t="str">
-        <f>"'"&amp;B3&amp;"'"</f>
+      <c r="E3" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'car_door'</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G3" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_door_comment_&lt;?php echo $row_car_door['goods_chk_car_door_id']; ?&gt;' id='com_car_door_comment_&lt;?php echo $row_car_door['goods_chk_car_door_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="25" t="str">
-        <f>"goods_chk_"&amp;B4&amp;"_comment"</f>
+      <c r="C4" s="21" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_car_floor_comment</v>
       </c>
-      <c r="D4" s="18" t="str">
-        <f>"chk_"&amp;B4</f>
+      <c r="D4" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_car_floor</v>
       </c>
-      <c r="E4" s="18" t="str">
-        <f>"'"&amp;B4&amp;"'"</f>
+      <c r="E4" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'car_floor'</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G4" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_floor_comment_&lt;?php echo $row_car_floor['goods_chk_car_floor_id']; ?&gt;' id='com_car_floor_comment_&lt;?php echo $row_car_floor['goods_chk_car_floor_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="18" t="str">
-        <f>"goods_chk_"&amp;B5&amp;"_comment"</f>
+      <c r="C5" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_car_frame_comment</v>
       </c>
-      <c r="D5" s="18" t="str">
-        <f>"chk_"&amp;B5</f>
+      <c r="D5" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_car_frame</v>
       </c>
-      <c r="E5" s="18" t="str">
-        <f>"'"&amp;B5&amp;"'"</f>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'car_frame'</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G5" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_frame_comment_&lt;?php echo $row_car_frame['goods_chk_car_frame_id']; ?&gt;' id='com_car_frame_comment_&lt;?php echo $row_car_frame['goods_chk_car_frame_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="18" t="str">
-        <f>"goods_chk_"&amp;B6&amp;"_comment"</f>
+      <c r="C6" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_car_lights_comment</v>
       </c>
-      <c r="D6" s="18" t="str">
-        <f>"chk_"&amp;B6</f>
+      <c r="D6" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_car_lights</v>
       </c>
-      <c r="E6" s="18" t="str">
-        <f>"'"&amp;B6&amp;"'"</f>
+      <c r="E6" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'car_lights'</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G6" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_lights_comment_&lt;?php echo $row_car_lights['goods_chk_car_lights_id']; ?&gt;' id='com_car_lights_comment_&lt;?php echo $row_car_lights['goods_chk_car_lights_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="18" t="str">
-        <f>"goods_chk_"&amp;B7&amp;"_comment"</f>
+      <c r="C7" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_car_roof_comment</v>
       </c>
-      <c r="D7" s="18" t="str">
-        <f>"chk_"&amp;B7</f>
+      <c r="D7" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_car_roof</v>
       </c>
-      <c r="E7" s="18" t="str">
-        <f>"'"&amp;B7&amp;"'"</f>
+      <c r="E7" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'car_roof'</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G7" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_roof_comment_&lt;?php echo $row_car_roof['goods_chk_car_roof_id']; ?&gt;' id='com_car_roof_comment_&lt;?php echo $row_car_roof['goods_chk_car_roof_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="18" t="str">
-        <f>"goods_chk_"&amp;B8&amp;"_comment"</f>
+      <c r="C8" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_ceiling_comment</v>
       </c>
-      <c r="D8" s="18" t="str">
-        <f>"chk_"&amp;B8</f>
+      <c r="D8" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_ceiling</v>
       </c>
-      <c r="E8" s="18" t="str">
-        <f>"'"&amp;B8&amp;"'"</f>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'ceiling'</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G8" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ceiling_comment_&lt;?php echo $row_ceiling['goods_chk_ceiling_id']; ?&gt;' id='com_ceiling_comment_&lt;?php echo $row_ceiling['goods_chk_ceiling_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="9" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="18" t="str">
-        <f>"goods_chk_"&amp;B9&amp;"_comment"</f>
+      <c r="C9" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_ceiling_light_comment</v>
       </c>
-      <c r="D9" s="18" t="str">
-        <f>"chk_"&amp;B9</f>
+      <c r="D9" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_ceiling_light</v>
       </c>
-      <c r="E9" s="18" t="str">
-        <f>"'"&amp;B9&amp;"'"</f>
+      <c r="E9" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'ceiling_light'</v>
       </c>
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G9" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ceiling_light_comment_&lt;?php echo $row_ceiling_light['goods_chk_ceiling_light_id']; ?&gt;' id='com_ceiling_light_comment_&lt;?php echo $row_ceiling_light['goods_chk_ceiling_light_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="18" t="str">
-        <f>"goods_chk_"&amp;B10&amp;"_comment"</f>
+      <c r="C10" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_cooling_system_comment</v>
       </c>
-      <c r="D10" s="18" t="str">
-        <f>"chk_"&amp;B10</f>
+      <c r="D10" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_cooling_system</v>
       </c>
-      <c r="E10" s="18" t="str">
-        <f>"'"&amp;B10&amp;"'"</f>
+      <c r="E10" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'cooling_system'</v>
       </c>
-      <c r="F10" s="19" t="s">
+      <c r="F10" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G10" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_cooling_system_comment_&lt;?php echo $row_cooling_system['goods_chk_cooling_system_id']; ?&gt;' id='com_cooling_system_comment_&lt;?php echo $row_cooling_system['goods_chk_cooling_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="18" t="str">
-        <f>"goods_chk_"&amp;B11&amp;"_comment"</f>
+      <c r="C11" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_engine_and_gear_comment</v>
       </c>
-      <c r="D11" s="18" t="str">
-        <f>"chk_"&amp;B11</f>
+      <c r="D11" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_engine_and_gear</v>
       </c>
-      <c r="E11" s="18" t="str">
-        <f>"'"&amp;B11&amp;"'"</f>
+      <c r="E11" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'engine_and_gear'</v>
       </c>
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G11" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_engine_and_gear_comment_&lt;?php echo $row_engine_and_gear['goods_chk_engine_and_gear_id']; ?&gt;' id='com_engine_and_gear_comment_&lt;?php echo $row_engine_and_gear['goods_chk_engine_and_gear_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="18" t="str">
-        <f>"goods_chk_"&amp;B12&amp;"_comment"</f>
+      <c r="C12" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_engine_compartment_wall_comment</v>
       </c>
-      <c r="D12" s="18" t="str">
-        <f>"chk_"&amp;B12</f>
+      <c r="D12" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_engine_compartment_wall</v>
       </c>
-      <c r="E12" s="18" t="str">
-        <f>"'"&amp;B12&amp;"'"</f>
+      <c r="E12" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'engine_compartment_wall'</v>
       </c>
-      <c r="F12" s="19" t="s">
+      <c r="F12" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G12" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_engine_compartment_wall_comment_&lt;?php echo $row_engine_compartment_wall['goods_chk_engine_compartment_wall_id']; ?&gt;' id='com_engine_compartment_wall_comment_&lt;?php echo $row_engine_compartment_wall['goods_chk_engine_compartment_wall_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="18" t="str">
-        <f>"goods_chk_"&amp;B13&amp;"_comment"</f>
+      <c r="C13" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_entertainment_control_system_comment</v>
       </c>
-      <c r="D13" s="18" t="str">
-        <f>"chk_"&amp;B13</f>
+      <c r="D13" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_entertainment_control_system</v>
       </c>
-      <c r="E13" s="18" t="str">
-        <f>"'"&amp;B13&amp;"'"</f>
+      <c r="E13" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'entertainment_control_system'</v>
       </c>
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G13" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_entertainment_control_system_comment_&lt;?php echo $row_entertainment_control_system['goods_chk_entertainment_control_system_id']; ?&gt;' id='com_entertainment_control_system_comment_&lt;?php echo $row_entertainment_control_system['goods_chk_entertainment_control_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A14" s="28" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>"goods_chk_"&amp;B14&amp;"_comment"</f>
+        <f t="shared" si="0"/>
         <v>goods_chk_fog_lamp_comment</v>
       </c>
-      <c r="D14" s="18" t="str">
-        <f>"chk_"&amp;B14</f>
+      <c r="D14" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_fog_lamp</v>
       </c>
-      <c r="E14" s="18" t="str">
-        <f>"'"&amp;B14&amp;"'"</f>
+      <c r="E14" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'fog_lamp'</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F14" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G14" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_fog_lamp_comment_&lt;?php echo $row_fog_lamp['goods_chk_fog_lamp_id']; ?&gt;' id='com_fog_lamp_comment_&lt;?php echo $row_fog_lamp['goods_chk_fog_lamp_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="15" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="18" t="str">
-        <f>"goods_chk_"&amp;B15&amp;"_comment"</f>
+      <c r="C15" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_front_beam_comment</v>
       </c>
-      <c r="D15" s="18" t="str">
-        <f>"chk_"&amp;B15</f>
+      <c r="D15" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_front_beam</v>
       </c>
-      <c r="E15" s="18" t="str">
-        <f>"'"&amp;B15&amp;"'"</f>
+      <c r="E15" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'front_beam'</v>
       </c>
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_beam_comment_&lt;?php echo $row_front_beam['goods_chk_front_beam_id']; ?&gt;' id='com_front_beam_comment_&lt;?php echo $row_front_beam['goods_chk_front_beam_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="16" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="18" t="str">
-        <f>"goods_chk_"&amp;B16&amp;"_comment"</f>
+      <c r="C16" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_front_fender_comment</v>
       </c>
-      <c r="D16" s="18" t="str">
-        <f>"chk_"&amp;B16</f>
+      <c r="D16" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_front_fender</v>
       </c>
-      <c r="E16" s="18" t="str">
-        <f>"'"&amp;B16&amp;"'"</f>
+      <c r="E16" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'front_fender'</v>
       </c>
-      <c r="F16" s="19" t="s">
+      <c r="F16" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G16" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_fender_comment_&lt;?php echo $row_front_fender['goods_chk_front_fender_id']; ?&gt;' id='com_front_fender_comment_&lt;?php echo $row_front_fender['goods_chk_front_fender_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A17" s="28" t="s">
         <v>2</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="18" t="str">
-        <f>"goods_chk_"&amp;B17&amp;"_comment"</f>
+      <c r="C17" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_front_light_comment</v>
       </c>
-      <c r="D17" s="18" t="str">
-        <f>"chk_"&amp;B17</f>
+      <c r="D17" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_front_light</v>
       </c>
-      <c r="E17" s="18" t="str">
-        <f>"'"&amp;B17&amp;"'"</f>
+      <c r="E17" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'front_light'</v>
       </c>
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="27" t="str">
-        <f t="shared" si="0"/>
+      <c r="G17" s="23" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_light_comment_&lt;?php echo $row_front_light['goods_chk_front_light_id']; ?&gt;' id='com_front_light_comment_&lt;?php echo $row_front_light['goods_chk_front_light_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="18" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="18" t="str">
-        <f>"goods_chk_"&amp;B18&amp;"_comment"</f>
+      <c r="C18" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_handbrake_comment</v>
       </c>
-      <c r="D18" s="18" t="str">
-        <f>"chk_"&amp;B18</f>
+      <c r="D18" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_handbrake</v>
       </c>
-      <c r="E18" s="18" t="str">
-        <f>"'"&amp;B18&amp;"'"</f>
+      <c r="E18" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'handbrake'</v>
       </c>
-      <c r="F18" s="19" t="s">
+      <c r="F18" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G18" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_handbrake_comment_&lt;?php echo $row_handbrake['goods_chk_handbrake_id']; ?&gt;' id='com_handbrake_comment_&lt;?php echo $row_handbrake['goods_chk_handbrake_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="19" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="18" t="str">
-        <f>"goods_chk_"&amp;B19&amp;"_comment"</f>
+      <c r="C19" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_handrail_comment</v>
       </c>
-      <c r="D19" s="18" t="str">
-        <f>"chk_"&amp;B19</f>
+      <c r="D19" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_handrail</v>
       </c>
-      <c r="E19" s="18" t="str">
-        <f>"'"&amp;B19&amp;"'"</f>
+      <c r="E19" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'handrail'</v>
       </c>
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G19" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_handrail_comment_&lt;?php echo $row_handrail['goods_chk_handrail_id']; ?&gt;' id='com_handrail_comment_&lt;?php echo $row_handrail['goods_chk_handrail_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="20" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="18" t="str">
-        <f>"goods_chk_"&amp;B20&amp;"_comment"</f>
+      <c r="C20" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_instrument_panel_comment</v>
       </c>
-      <c r="D20" s="18" t="str">
-        <f>"chk_"&amp;B20</f>
+      <c r="D20" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_instrument_panel</v>
       </c>
-      <c r="E20" s="18" t="str">
-        <f>"'"&amp;B20&amp;"'"</f>
+      <c r="E20" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'instrument_panel'</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="F20" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G20" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_instrument_panel_comment_&lt;?php echo $row_instrument_panel['goods_chk_instrument_panel_id']; ?&gt;' id='com_instrument_panel_comment_&lt;?php echo $row_instrument_panel['goods_chk_instrument_panel_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="18" t="str">
-        <f>"goods_chk_"&amp;B21&amp;"_comment"</f>
+      <c r="C21" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_lock_system_comment</v>
       </c>
-      <c r="D21" s="18" t="str">
-        <f>"chk_"&amp;B21</f>
+      <c r="D21" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_lock_system</v>
       </c>
-      <c r="E21" s="18" t="str">
-        <f>"'"&amp;B21&amp;"'"</f>
+      <c r="E21" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'lock_system'</v>
       </c>
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G21" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_lock_system_comment_&lt;?php echo $row_lock_system['goods_chk_lock_system_id']; ?&gt;' id='com_lock_system_comment_&lt;?php echo $row_lock_system['goods_chk_lock_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="18" t="str">
-        <f>"goods_chk_"&amp;B22&amp;"_comment"</f>
+      <c r="C22" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_multimedia_system_comment</v>
       </c>
-      <c r="D22" s="18" t="str">
-        <f>"chk_"&amp;B22</f>
+      <c r="D22" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_multimedia_system</v>
       </c>
-      <c r="E22" s="18" t="str">
-        <f>"'"&amp;B22&amp;"'"</f>
+      <c r="E22" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'multimedia_system'</v>
       </c>
-      <c r="F22" s="19" t="s">
+      <c r="F22" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G22" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_multimedia_system_comment_&lt;?php echo $row_multimedia_system['goods_chk_multimedia_system_id']; ?&gt;' id='com_multimedia_system_comment_&lt;?php echo $row_multimedia_system['goods_chk_multimedia_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A23" s="28" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="18" t="str">
-        <f>"goods_chk_"&amp;B23&amp;"_comment"</f>
+      <c r="C23" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_outside_comment</v>
       </c>
-      <c r="D23" s="18" t="str">
-        <f>"chk_"&amp;B23</f>
+      <c r="D23" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_outside</v>
       </c>
-      <c r="E23" s="18" t="str">
-        <f>"'"&amp;B23&amp;"'"</f>
+      <c r="E23" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'outside'</v>
       </c>
-      <c r="F23" s="19" t="s">
+      <c r="F23" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G23" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_outside_comment_&lt;?php echo $row_outside['goods_chk_outside_id']; ?&gt;' id='com_outside_comment_&lt;?php echo $row_outside['goods_chk_outside_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="24" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="18" t="str">
-        <f>"goods_chk_"&amp;B24&amp;"_comment"</f>
+      <c r="C24" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_powertrain_comment</v>
       </c>
-      <c r="D24" s="18" t="str">
-        <f>"chk_"&amp;B24</f>
+      <c r="D24" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_powertrain</v>
       </c>
-      <c r="E24" s="18" t="str">
-        <f>"'"&amp;B24&amp;"'"</f>
+      <c r="E24" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'powertrain'</v>
       </c>
-      <c r="F24" s="19" t="s">
+      <c r="F24" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G24" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_powertrain_comment_&lt;?php echo $row_powertrain['goods_chk_powertrain_id']; ?&gt;' id='com_powertrain_comment_&lt;?php echo $row_powertrain['goods_chk_powertrain_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="25" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="18" t="str">
-        <f>"goods_chk_"&amp;B25&amp;"_comment"</f>
+      <c r="C25" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_rear_fender_comment</v>
       </c>
-      <c r="D25" s="18" t="str">
-        <f>"chk_"&amp;B25</f>
+      <c r="D25" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_rear_fender</v>
       </c>
-      <c r="E25" s="18" t="str">
-        <f>"'"&amp;B25&amp;"'"</f>
+      <c r="E25" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'rear_fender'</v>
       </c>
-      <c r="F25" s="19" t="s">
+      <c r="F25" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G25" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_rear_fender_comment_&lt;?php echo $row_rear_fender['goods_chk_rear_fender_id']; ?&gt;' id='com_rear_fender_comment_&lt;?php echo $row_rear_fender['goods_chk_rear_fender_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A26" s="28" t="s">
         <v>4</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="18" t="str">
-        <f>"goods_chk_"&amp;B26&amp;"_comment"</f>
+      <c r="C26" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_ruby_bumper_comment</v>
       </c>
-      <c r="D26" s="18" t="str">
-        <f>"chk_"&amp;B26</f>
+      <c r="D26" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_ruby_bumper</v>
       </c>
-      <c r="E26" s="18" t="str">
-        <f>"'"&amp;B26&amp;"'"</f>
+      <c r="E26" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'ruby_bumper'</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G26" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ruby_bumper_comment_&lt;?php echo $row_ruby_bumper['goods_chk_ruby_bumper_id']; ?&gt;' id='com_ruby_bumper_comment_&lt;?php echo $row_ruby_bumper['goods_chk_ruby_bumper_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="18" t="str">
-        <f>"goods_chk_"&amp;B27&amp;"_comment"</f>
+      <c r="C27" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_seat_comment</v>
       </c>
-      <c r="D27" s="18" t="str">
-        <f>"chk_"&amp;B27</f>
+      <c r="D27" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_seat</v>
       </c>
-      <c r="E27" s="18" t="str">
-        <f>"'"&amp;B27&amp;"'"</f>
+      <c r="E27" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'seat'</v>
       </c>
-      <c r="F27" s="19" t="s">
+      <c r="F27" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G27" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_seat_comment_&lt;?php echo $row_seat['goods_chk_seat_id']; ?&gt;' id='com_seat_comment_&lt;?php echo $row_seat['goods_chk_seat_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="28" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="18" t="str">
-        <f>"goods_chk_"&amp;B28&amp;"_comment"</f>
+      <c r="C28" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_shock_absorber_comment</v>
       </c>
-      <c r="D28" s="18" t="str">
-        <f>"chk_"&amp;B28</f>
+      <c r="D28" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_shock_absorber</v>
       </c>
-      <c r="E28" s="18" t="str">
-        <f>"'"&amp;B28&amp;"'"</f>
+      <c r="E28" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'shock_absorber'</v>
       </c>
-      <c r="F28" s="19" t="s">
+      <c r="F28" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G28" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_shock_absorber_comment_&lt;?php echo $row_shock_absorber['goods_chk_shock_absorber_id']; ?&gt;' id='com_shock_absorber_comment_&lt;?php echo $row_shock_absorber['goods_chk_shock_absorber_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="29" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="18" t="str">
-        <f>"goods_chk_"&amp;B29&amp;"_comment"</f>
+      <c r="C29" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_side_mirror_comment</v>
       </c>
-      <c r="D29" s="18" t="str">
-        <f>"chk_"&amp;B29</f>
+      <c r="D29" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_side_mirror</v>
       </c>
-      <c r="E29" s="18" t="str">
-        <f>"'"&amp;B29&amp;"'"</f>
+      <c r="E29" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'side_mirror'</v>
       </c>
-      <c r="F29" s="19" t="s">
+      <c r="F29" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G29" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_side_mirror_comment_&lt;?php echo $row_side_mirror['goods_chk_side_mirror_id']; ?&gt;' id='com_side_mirror_comment_&lt;?php echo $row_side_mirror['goods_chk_side_mirror_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="30" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="18" t="str">
-        <f>"goods_chk_"&amp;B30&amp;"_comment"</f>
+      <c r="C30" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_speed_meter_comment</v>
       </c>
-      <c r="D30" s="18" t="str">
-        <f>"chk_"&amp;B30</f>
+      <c r="D30" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_speed_meter</v>
       </c>
-      <c r="E30" s="18" t="str">
-        <f>"'"&amp;B30&amp;"'"</f>
+      <c r="E30" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'speed_meter'</v>
       </c>
-      <c r="F30" s="19" t="s">
+      <c r="F30" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G30" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_speed_meter_comment_&lt;?php echo $row_speed_meter['goods_chk_speed_meter_id']; ?&gt;' id='com_speed_meter_comment_&lt;?php echo $row_speed_meter['goods_chk_speed_meter_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="18" t="str">
-        <f>"goods_chk_"&amp;B31&amp;"_comment"</f>
+      <c r="C31" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_tire_comment</v>
       </c>
-      <c r="D31" s="18" t="str">
-        <f>"chk_"&amp;B31</f>
+      <c r="D31" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_tire</v>
       </c>
-      <c r="E31" s="18" t="str">
-        <f>"'"&amp;B31&amp;"'"</f>
+      <c r="E31" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'tire'</v>
       </c>
-      <c r="F31" s="19" t="s">
+      <c r="F31" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G31" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_tire_comment_&lt;?php echo $row_tire['goods_chk_tire_id']; ?&gt;' id='com_tire_comment_&lt;?php echo $row_tire['goods_chk_tire_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="32" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="18" t="str">
-        <f>"goods_chk_"&amp;B32&amp;"_comment"</f>
+      <c r="C32" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_window_film_comment</v>
       </c>
-      <c r="D32" s="18" t="str">
-        <f>"chk_"&amp;B32</f>
+      <c r="D32" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_window_film</v>
       </c>
-      <c r="E32" s="18" t="str">
-        <f>"'"&amp;B32&amp;"'"</f>
+      <c r="E32" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'window_film'</v>
       </c>
-      <c r="F32" s="19" t="s">
+      <c r="F32" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G32" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_window_film_comment_&lt;?php echo $row_window_film['goods_chk_window_film_id']; ?&gt;' id='com_window_film_comment_&lt;?php echo $row_window_film['goods_chk_window_film_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="33" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="18" t="str">
-        <f>"goods_chk_"&amp;B33&amp;"_comment"</f>
+      <c r="C33" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_window_glass_comment</v>
       </c>
-      <c r="D33" s="18" t="str">
-        <f>"chk_"&amp;B33</f>
+      <c r="D33" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_window_glass</v>
       </c>
-      <c r="E33" s="18" t="str">
-        <f>"'"&amp;B33&amp;"'"</f>
+      <c r="E33" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'window_glass'</v>
       </c>
-      <c r="F33" s="19" t="s">
+      <c r="F33" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G33" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_window_glass_comment_&lt;?php echo $row_window_glass['goods_chk_window_glass_id']; ?&gt;' id='com_window_glass_comment_&lt;?php echo $row_window_glass['goods_chk_window_glass_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="18" t="str">
-        <f>"goods_chk_"&amp;B34&amp;"_comment"</f>
+      <c r="C34" s="14" t="str">
+        <f t="shared" si="0"/>
         <v>goods_chk_windshield_comment</v>
       </c>
-      <c r="D34" s="18" t="str">
-        <f>"chk_"&amp;B34</f>
+      <c r="D34" s="14" t="str">
+        <f t="shared" si="1"/>
         <v>chk_windshield</v>
       </c>
-      <c r="E34" s="18" t="str">
-        <f>"'"&amp;B34&amp;"'"</f>
+      <c r="E34" s="14" t="str">
+        <f t="shared" si="2"/>
         <v>'windshield'</v>
       </c>
-      <c r="F34" s="19" t="s">
+      <c r="F34" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="18" t="str">
-        <f t="shared" si="0"/>
+      <c r="G34" s="14" t="str">
+        <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_windshield_comment_&lt;?php echo $row_windshield['goods_chk_windshield_id']; ?&gt;' id='com_windshield_comment_&lt;?php echo $row_windshield['goods_chk_windshield_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23" t="s">
+    <row r="35" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
+      <c r="A35" s="18"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="F35" s="26" t="s">
+      <c r="E35" s="19"/>
+      <c r="F35" s="22" t="s">
         <v>104</v>
       </c>
       <c r="G35" s="3"/>
@@ -1939,7 +1940,7 @@
       <c r="A5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>5000</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -1972,7 +1973,7 @@
       <c r="O5" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="15">
+      <c r="P5" s="12">
         <f>B5</f>
         <v>5000</v>
       </c>
@@ -1981,13 +1982,13 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="27" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="6">
@@ -2026,7 +2027,7 @@
       <c r="P6">
         <v>0.65</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="24" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2038,7 +2039,7 @@
         <f>B6*7</f>
         <v>3.5</v>
       </c>
-      <c r="C7" s="17"/>
+      <c r="C7" s="27"/>
       <c r="E7" s="6">
         <v>2</v>
       </c>
@@ -2076,7 +2077,7 @@
         <f>P6*30</f>
         <v>19.5</v>
       </c>
-      <c r="Q7" s="10"/>
+      <c r="Q7" s="25"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -2086,7 +2087,7 @@
         <f>B6*30</f>
         <v>15</v>
       </c>
-      <c r="C8" s="17"/>
+      <c r="C8" s="27"/>
       <c r="E8" s="6">
         <v>3</v>
       </c>
@@ -2124,7 +2125,7 @@
         <f>P6*365</f>
         <v>237.25</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -2134,7 +2135,7 @@
         <f>B6*365</f>
         <v>182.5</v>
       </c>
-      <c r="C9" s="17"/>
+      <c r="C9" s="27"/>
       <c r="E9" s="6">
         <v>4</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>25.376878124999998</v>
       </c>
       <c r="H9" s="8">
-        <f t="shared" ref="H8:H17" si="4">F9+G9</f>
+        <f t="shared" ref="H9:H17" si="4">F9+G9</f>
         <v>5100.7525031249997</v>
       </c>
       <c r="J9" s="6">
@@ -2168,7 +2169,7 @@
       <c r="O9" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="12">
+      <c r="P9" s="9">
         <v>30</v>
       </c>
       <c r="Q9" s="6" t="s">
@@ -2179,7 +2180,7 @@
       <c r="A10" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>30</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -2429,33 +2430,33 @@
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="14">
+      <c r="E17" s="11">
         <v>12</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F17" s="10">
         <f t="shared" si="2"/>
         <v>5281.9791635049714</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="10">
         <f t="shared" si="3"/>
         <v>26.409895817524859</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="10">
         <f t="shared" si="4"/>
         <v>5308.389059322496</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="11">
         <v>12</v>
       </c>
-      <c r="K17" s="13">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="L17" s="13">
+      <c r="K17" s="10">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="L17" s="10">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M17" s="13">
+      <c r="M17" s="10">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
@@ -3016,7 +3017,7 @@
         <f t="shared" si="3"/>
         <v>28.890549325754865</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="10">
         <f t="shared" si="6"/>
         <v>5807.0004144767281</v>
       </c>
@@ -3031,7 +3032,7 @@
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M35" s="13">
+      <c r="M35" s="10">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>

--- a/source/source.xlsx
+++ b/source/source.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\wecar\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E248B6-C004-4FD7-B3B4-A1FD36514104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57F7FE2-8465-46C8-BE91-D4A7C4466F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D0D4A28-9C98-43E5-A704-1508D3CF9126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
   <si>
     <t>ภายนอก</t>
   </si>
@@ -408,13 +409,58 @@
   </si>
   <si>
     <t>ปี</t>
+  </si>
+  <si>
+    <t>ยี่ห้อรถ</t>
+  </si>
+  <si>
+    <t>brand</t>
+  </si>
+  <si>
+    <t>ชื่อรถ</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>ปีรถ</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>ราคา</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>โฆษณา</t>
+  </si>
+  <si>
+    <t>advert</t>
+  </si>
+  <si>
+    <t>upload</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>รายละเอียด</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>return id to insert spec&amp;car check</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +499,18 @@
       <color theme="1"/>
       <name val="Prompt"/>
       <charset val="222"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Prompt"/>
     </font>
   </fonts>
   <fills count="5">
@@ -594,11 +652,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -609,16 +664,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -631,7 +687,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E438FC-4BAC-4F89-A6B5-4F8919550379}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -960,941 +1035,944 @@
     <col min="4" max="4" width="30.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A1" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="20" t="str">
+      <c r="C1" s="26" t="str">
         <f t="shared" ref="C1:C34" si="0">"goods_chk_"&amp;B1&amp;"_comment"</f>
         <v>goods_chk_alloy_comment</v>
       </c>
-      <c r="D1" s="20" t="str">
+      <c r="D1" s="26" t="str">
         <f t="shared" ref="D1:D34" si="1">"chk_"&amp;B1</f>
         <v>chk_alloy</v>
       </c>
-      <c r="E1" s="20" t="str">
+      <c r="E1" s="26" t="str">
         <f t="shared" ref="E1:E34" si="2">"'"&amp;B1&amp;"'"</f>
         <v>'alloy'</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="14" t="str">
+      <c r="G1" s="27" t="str">
         <f>"&lt;input type='hidden' name='com_"&amp;B1&amp;"_comment_&lt;?php echo $row_"&amp;B1&amp;"['goods_chk_"&amp;B1&amp;"_id']; ?&gt;' id='com_"&amp;B1&amp;"_comment_&lt;?php echo $row_"&amp;B1&amp;"['goods_chk_"&amp;B1&amp;"_id']; ?&gt;' value=''&gt;"</f>
         <v>&lt;input type='hidden' name='com_alloy_comment_&lt;?php echo $row_alloy['goods_chk_alloy_id']; ?&gt;' id='com_alloy_comment_&lt;?php echo $row_alloy['goods_chk_alloy_id']; ?&gt;' value=''&gt;</v>
       </c>
-      <c r="H1" s="16"/>
-    </row>
-    <row r="2" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="H1" s="24"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="14" t="str">
+      <c r="C2" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_brand_symbol_comment</v>
       </c>
-      <c r="D2" s="14" t="str">
+      <c r="D2" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_brand_symbol</v>
       </c>
-      <c r="E2" s="14" t="str">
+      <c r="E2" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'car_brand_symbol'</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="14" t="str">
+      <c r="G2" s="27" t="str">
         <f t="shared" ref="G2:G34" si="3">"&lt;input type='hidden' name='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' id='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' value=''&gt;"</f>
         <v>&lt;input type='hidden' name='com_car_brand_symbol_comment_&lt;?php echo $row_car_brand_symbol['goods_chk_car_brand_symbol_id']; ?&gt;' id='com_car_brand_symbol_comment_&lt;?php echo $row_car_brand_symbol['goods_chk_car_brand_symbol_id']; ?&gt;' value=''&gt;</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="H2" s="24"/>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A3" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="14" t="str">
+      <c r="C3" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_door_comment</v>
       </c>
-      <c r="D3" s="14" t="str">
+      <c r="D3" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_door</v>
       </c>
-      <c r="E3" s="14" t="str">
+      <c r="E3" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'car_door'</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="14" t="str">
+      <c r="G3" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_door_comment_&lt;?php echo $row_car_door['goods_chk_car_door_id']; ?&gt;' id='com_car_door_comment_&lt;?php echo $row_car_door['goods_chk_car_door_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A4" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="21" t="str">
+      <c r="C4" s="31" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_floor_comment</v>
       </c>
-      <c r="D4" s="14" t="str">
+      <c r="D4" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_floor</v>
       </c>
-      <c r="E4" s="14" t="str">
+      <c r="E4" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'car_floor'</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="30" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="14" t="str">
+      <c r="G4" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_floor_comment_&lt;?php echo $row_car_floor['goods_chk_car_floor_id']; ?&gt;' id='com_car_floor_comment_&lt;?php echo $row_car_floor['goods_chk_car_floor_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A5" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="14" t="str">
+      <c r="C5" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_frame_comment</v>
       </c>
-      <c r="D5" s="14" t="str">
+      <c r="D5" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_frame</v>
       </c>
-      <c r="E5" s="14" t="str">
+      <c r="E5" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'car_frame'</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="14" t="str">
+      <c r="G5" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_frame_comment_&lt;?php echo $row_car_frame['goods_chk_car_frame_id']; ?&gt;' id='com_car_frame_comment_&lt;?php echo $row_car_frame['goods_chk_car_frame_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A6" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="14" t="str">
+      <c r="C6" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_lights_comment</v>
       </c>
-      <c r="D6" s="14" t="str">
+      <c r="D6" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_lights</v>
       </c>
-      <c r="E6" s="14" t="str">
+      <c r="E6" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'car_lights'</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="14" t="str">
+      <c r="G6" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_lights_comment_&lt;?php echo $row_car_lights['goods_chk_car_lights_id']; ?&gt;' id='com_car_lights_comment_&lt;?php echo $row_car_lights['goods_chk_car_lights_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A7" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="14" t="str">
+      <c r="C7" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_roof_comment</v>
       </c>
-      <c r="D7" s="14" t="str">
+      <c r="D7" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_roof</v>
       </c>
-      <c r="E7" s="14" t="str">
+      <c r="E7" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'car_roof'</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="30" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="14" t="str">
+      <c r="G7" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_roof_comment_&lt;?php echo $row_car_roof['goods_chk_car_roof_id']; ?&gt;' id='com_car_roof_comment_&lt;?php echo $row_car_roof['goods_chk_car_roof_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A8" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="14" t="str">
+      <c r="C8" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_ceiling_comment</v>
       </c>
-      <c r="D8" s="14" t="str">
+      <c r="D8" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_ceiling</v>
       </c>
-      <c r="E8" s="14" t="str">
+      <c r="E8" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'ceiling'</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="14" t="str">
+      <c r="G8" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ceiling_comment_&lt;?php echo $row_ceiling['goods_chk_ceiling_id']; ?&gt;' id='com_ceiling_comment_&lt;?php echo $row_ceiling['goods_chk_ceiling_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A9" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="14" t="str">
+      <c r="C9" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_ceiling_light_comment</v>
       </c>
-      <c r="D9" s="14" t="str">
+      <c r="D9" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_ceiling_light</v>
       </c>
-      <c r="E9" s="14" t="str">
+      <c r="E9" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'ceiling_light'</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="14" t="str">
+      <c r="G9" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ceiling_light_comment_&lt;?php echo $row_ceiling_light['goods_chk_ceiling_light_id']; ?&gt;' id='com_ceiling_light_comment_&lt;?php echo $row_ceiling_light['goods_chk_ceiling_light_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A10" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="14" t="str">
+      <c r="C10" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_cooling_system_comment</v>
       </c>
-      <c r="D10" s="14" t="str">
+      <c r="D10" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_cooling_system</v>
       </c>
-      <c r="E10" s="14" t="str">
+      <c r="E10" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'cooling_system'</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="14" t="str">
+      <c r="G10" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_cooling_system_comment_&lt;?php echo $row_cooling_system['goods_chk_cooling_system_id']; ?&gt;' id='com_cooling_system_comment_&lt;?php echo $row_cooling_system['goods_chk_cooling_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A11" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="14" t="str">
+      <c r="C11" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_engine_and_gear_comment</v>
       </c>
-      <c r="D11" s="14" t="str">
+      <c r="D11" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_engine_and_gear</v>
       </c>
-      <c r="E11" s="14" t="str">
+      <c r="E11" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'engine_and_gear'</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="30" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="14" t="str">
+      <c r="G11" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_engine_and_gear_comment_&lt;?php echo $row_engine_and_gear['goods_chk_engine_and_gear_id']; ?&gt;' id='com_engine_and_gear_comment_&lt;?php echo $row_engine_and_gear['goods_chk_engine_and_gear_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A12" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="14" t="str">
+      <c r="C12" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_engine_compartment_wall_comment</v>
       </c>
-      <c r="D12" s="14" t="str">
+      <c r="D12" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_engine_compartment_wall</v>
       </c>
-      <c r="E12" s="14" t="str">
+      <c r="E12" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'engine_compartment_wall'</v>
       </c>
-      <c r="F12" s="15" t="s">
+      <c r="F12" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="14" t="str">
+      <c r="G12" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_engine_compartment_wall_comment_&lt;?php echo $row_engine_compartment_wall['goods_chk_engine_compartment_wall_id']; ?&gt;' id='com_engine_compartment_wall_comment_&lt;?php echo $row_engine_compartment_wall['goods_chk_engine_compartment_wall_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A13" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="14" t="str">
+      <c r="C13" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_entertainment_control_system_comment</v>
       </c>
-      <c r="D13" s="14" t="str">
+      <c r="D13" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_entertainment_control_system</v>
       </c>
-      <c r="E13" s="14" t="str">
+      <c r="E13" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'entertainment_control_system'</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="30" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="14" t="str">
+      <c r="G13" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_entertainment_control_system_comment_&lt;?php echo $row_entertainment_control_system['goods_chk_entertainment_control_system_id']; ?&gt;' id='com_entertainment_control_system_comment_&lt;?php echo $row_entertainment_control_system['goods_chk_entertainment_control_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A14" s="28" t="s">
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_fog_lamp_comment</v>
       </c>
-      <c r="D14" s="14" t="str">
+      <c r="D14" s="11" t="str">
         <f t="shared" si="1"/>
         <v>chk_fog_lamp</v>
       </c>
-      <c r="E14" s="14" t="str">
+      <c r="E14" s="11" t="str">
         <f t="shared" si="2"/>
         <v>'fog_lamp'</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="14" t="str">
+      <c r="G14" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_fog_lamp_comment_&lt;?php echo $row_fog_lamp['goods_chk_fog_lamp_id']; ?&gt;' id='com_fog_lamp_comment_&lt;?php echo $row_fog_lamp['goods_chk_fog_lamp_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A15" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="14" t="str">
+      <c r="C15" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_front_beam_comment</v>
       </c>
-      <c r="D15" s="14" t="str">
+      <c r="D15" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_front_beam</v>
       </c>
-      <c r="E15" s="14" t="str">
+      <c r="E15" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'front_beam'</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="14" t="str">
+      <c r="G15" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_beam_comment_&lt;?php echo $row_front_beam['goods_chk_front_beam_id']; ?&gt;' id='com_front_beam_comment_&lt;?php echo $row_front_beam['goods_chk_front_beam_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A16" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="14" t="str">
+      <c r="C16" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_front_fender_comment</v>
       </c>
-      <c r="D16" s="14" t="str">
+      <c r="D16" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_front_fender</v>
       </c>
-      <c r="E16" s="14" t="str">
+      <c r="E16" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'front_fender'</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="14" t="str">
+      <c r="G16" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_fender_comment_&lt;?php echo $row_front_fender['goods_chk_front_fender_id']; ?&gt;' id='com_front_fender_comment_&lt;?php echo $row_front_fender['goods_chk_front_fender_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A17" s="28" t="s">
+    <row r="17" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C17" s="14" t="str">
+      <c r="C17" s="11" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_front_light_comment</v>
       </c>
-      <c r="D17" s="14" t="str">
+      <c r="D17" s="11" t="str">
         <f t="shared" si="1"/>
         <v>chk_front_light</v>
       </c>
-      <c r="E17" s="14" t="str">
+      <c r="E17" s="11" t="str">
         <f t="shared" si="2"/>
         <v>'front_light'</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="G17" s="23" t="str">
+      <c r="G17" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_light_comment_&lt;?php echo $row_front_light['goods_chk_front_light_id']; ?&gt;' id='com_front_light_comment_&lt;?php echo $row_front_light['goods_chk_front_light_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A18" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="14" t="str">
+      <c r="C18" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_handbrake_comment</v>
       </c>
-      <c r="D18" s="14" t="str">
+      <c r="D18" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_handbrake</v>
       </c>
-      <c r="E18" s="14" t="str">
+      <c r="E18" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'handbrake'</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="14" t="str">
+      <c r="G18" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_handbrake_comment_&lt;?php echo $row_handbrake['goods_chk_handbrake_id']; ?&gt;' id='com_handbrake_comment_&lt;?php echo $row_handbrake['goods_chk_handbrake_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A19" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="14" t="str">
+      <c r="C19" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_handrail_comment</v>
       </c>
-      <c r="D19" s="14" t="str">
+      <c r="D19" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_handrail</v>
       </c>
-      <c r="E19" s="14" t="str">
+      <c r="E19" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'handrail'</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="14" t="str">
+      <c r="G19" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_handrail_comment_&lt;?php echo $row_handrail['goods_chk_handrail_id']; ?&gt;' id='com_handrail_comment_&lt;?php echo $row_handrail['goods_chk_handrail_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A20" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="14" t="str">
+      <c r="C20" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_instrument_panel_comment</v>
       </c>
-      <c r="D20" s="14" t="str">
+      <c r="D20" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_instrument_panel</v>
       </c>
-      <c r="E20" s="14" t="str">
+      <c r="E20" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'instrument_panel'</v>
       </c>
-      <c r="F20" s="15" t="s">
+      <c r="F20" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="14" t="str">
+      <c r="G20" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_instrument_panel_comment_&lt;?php echo $row_instrument_panel['goods_chk_instrument_panel_id']; ?&gt;' id='com_instrument_panel_comment_&lt;?php echo $row_instrument_panel['goods_chk_instrument_panel_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="14" t="str">
+      <c r="C21" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_lock_system_comment</v>
       </c>
-      <c r="D21" s="14" t="str">
+      <c r="D21" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_lock_system</v>
       </c>
-      <c r="E21" s="14" t="str">
+      <c r="E21" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'lock_system'</v>
       </c>
-      <c r="F21" s="15" t="s">
+      <c r="F21" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="14" t="str">
+      <c r="G21" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_lock_system_comment_&lt;?php echo $row_lock_system['goods_chk_lock_system_id']; ?&gt;' id='com_lock_system_comment_&lt;?php echo $row_lock_system['goods_chk_lock_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A22" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="14" t="str">
+      <c r="C22" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_multimedia_system_comment</v>
       </c>
-      <c r="D22" s="14" t="str">
+      <c r="D22" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_multimedia_system</v>
       </c>
-      <c r="E22" s="14" t="str">
+      <c r="E22" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'multimedia_system'</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="F22" s="30" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="14" t="str">
+      <c r="G22" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_multimedia_system_comment_&lt;?php echo $row_multimedia_system['goods_chk_multimedia_system_id']; ?&gt;' id='com_multimedia_system_comment_&lt;?php echo $row_multimedia_system['goods_chk_multimedia_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A23" s="28" t="s">
+    <row r="23" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="14" t="str">
+      <c r="C23" s="11" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_outside_comment</v>
       </c>
-      <c r="D23" s="14" t="str">
+      <c r="D23" s="11" t="str">
         <f t="shared" si="1"/>
         <v>chk_outside</v>
       </c>
-      <c r="E23" s="14" t="str">
+      <c r="E23" s="11" t="str">
         <f t="shared" si="2"/>
         <v>'outside'</v>
       </c>
-      <c r="F23" s="15" t="s">
+      <c r="F23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="G23" s="14" t="str">
+      <c r="G23" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_outside_comment_&lt;?php echo $row_outside['goods_chk_outside_id']; ?&gt;' id='com_outside_comment_&lt;?php echo $row_outside['goods_chk_outside_id']; ?&gt;' value=''&gt;</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A24" s="1" t="s">
+      <c r="H23" s="23"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A24" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="14" t="str">
+      <c r="C24" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_powertrain_comment</v>
       </c>
-      <c r="D24" s="14" t="str">
+      <c r="D24" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_powertrain</v>
       </c>
-      <c r="E24" s="14" t="str">
+      <c r="E24" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'powertrain'</v>
       </c>
-      <c r="F24" s="15" t="s">
+      <c r="F24" s="30" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="14" t="str">
+      <c r="G24" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_powertrain_comment_&lt;?php echo $row_powertrain['goods_chk_powertrain_id']; ?&gt;' id='com_powertrain_comment_&lt;?php echo $row_powertrain['goods_chk_powertrain_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A25" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="14" t="str">
+      <c r="C25" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_rear_fender_comment</v>
       </c>
-      <c r="D25" s="14" t="str">
+      <c r="D25" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_rear_fender</v>
       </c>
-      <c r="E25" s="14" t="str">
+      <c r="E25" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'rear_fender'</v>
       </c>
-      <c r="F25" s="15" t="s">
+      <c r="F25" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="14" t="str">
+      <c r="G25" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_rear_fender_comment_&lt;?php echo $row_rear_fender['goods_chk_rear_fender_id']; ?&gt;' id='com_rear_fender_comment_&lt;?php echo $row_rear_fender['goods_chk_rear_fender_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A26" s="28" t="s">
+    <row r="26" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="14" t="str">
+      <c r="C26" s="11" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_ruby_bumper_comment</v>
       </c>
-      <c r="D26" s="14" t="str">
+      <c r="D26" s="11" t="str">
         <f t="shared" si="1"/>
         <v>chk_ruby_bumper</v>
       </c>
-      <c r="E26" s="14" t="str">
+      <c r="E26" s="11" t="str">
         <f t="shared" si="2"/>
         <v>'ruby_bumper'</v>
       </c>
-      <c r="F26" s="15" t="s">
+      <c r="F26" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="G26" s="14" t="str">
+      <c r="G26" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ruby_bumper_comment_&lt;?php echo $row_ruby_bumper['goods_chk_ruby_bumper_id']; ?&gt;' id='com_ruby_bumper_comment_&lt;?php echo $row_ruby_bumper['goods_chk_ruby_bumper_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A27" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="14" t="str">
+      <c r="C27" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_seat_comment</v>
       </c>
-      <c r="D27" s="14" t="str">
+      <c r="D27" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_seat</v>
       </c>
-      <c r="E27" s="14" t="str">
+      <c r="E27" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'seat'</v>
       </c>
-      <c r="F27" s="15" t="s">
+      <c r="F27" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="14" t="str">
+      <c r="G27" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_seat_comment_&lt;?php echo $row_seat['goods_chk_seat_id']; ?&gt;' id='com_seat_comment_&lt;?php echo $row_seat['goods_chk_seat_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A28" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="14" t="str">
+      <c r="C28" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_shock_absorber_comment</v>
       </c>
-      <c r="D28" s="14" t="str">
+      <c r="D28" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_shock_absorber</v>
       </c>
-      <c r="E28" s="14" t="str">
+      <c r="E28" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'shock_absorber'</v>
       </c>
-      <c r="F28" s="15" t="s">
+      <c r="F28" s="30" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="14" t="str">
+      <c r="G28" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_shock_absorber_comment_&lt;?php echo $row_shock_absorber['goods_chk_shock_absorber_id']; ?&gt;' id='com_shock_absorber_comment_&lt;?php echo $row_shock_absorber['goods_chk_shock_absorber_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A29" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="14" t="str">
+      <c r="C29" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_side_mirror_comment</v>
       </c>
-      <c r="D29" s="14" t="str">
+      <c r="D29" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_side_mirror</v>
       </c>
-      <c r="E29" s="14" t="str">
+      <c r="E29" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'side_mirror'</v>
       </c>
-      <c r="F29" s="15" t="s">
+      <c r="F29" s="30" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="14" t="str">
+      <c r="G29" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_side_mirror_comment_&lt;?php echo $row_side_mirror['goods_chk_side_mirror_id']; ?&gt;' id='com_side_mirror_comment_&lt;?php echo $row_side_mirror['goods_chk_side_mirror_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A30" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="14" t="str">
+      <c r="C30" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_speed_meter_comment</v>
       </c>
-      <c r="D30" s="14" t="str">
+      <c r="D30" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_speed_meter</v>
       </c>
-      <c r="E30" s="14" t="str">
+      <c r="E30" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'speed_meter'</v>
       </c>
-      <c r="F30" s="15" t="s">
+      <c r="F30" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="14" t="str">
+      <c r="G30" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_speed_meter_comment_&lt;?php echo $row_speed_meter['goods_chk_speed_meter_id']; ?&gt;' id='com_speed_meter_comment_&lt;?php echo $row_speed_meter['goods_chk_speed_meter_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A31" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="14" t="str">
+      <c r="C31" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_tire_comment</v>
       </c>
-      <c r="D31" s="14" t="str">
+      <c r="D31" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_tire</v>
       </c>
-      <c r="E31" s="14" t="str">
+      <c r="E31" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'tire'</v>
       </c>
-      <c r="F31" s="15" t="s">
+      <c r="F31" s="30" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="14" t="str">
+      <c r="G31" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_tire_comment_&lt;?php echo $row_tire['goods_chk_tire_id']; ?&gt;' id='com_tire_comment_&lt;?php echo $row_tire['goods_chk_tire_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A32" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="14" t="str">
+      <c r="C32" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_window_film_comment</v>
       </c>
-      <c r="D32" s="14" t="str">
+      <c r="D32" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_window_film</v>
       </c>
-      <c r="E32" s="14" t="str">
+      <c r="E32" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'window_film'</v>
       </c>
-      <c r="F32" s="15" t="s">
+      <c r="F32" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="14" t="str">
+      <c r="G32" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_window_film_comment_&lt;?php echo $row_window_film['goods_chk_window_film_id']; ?&gt;' id='com_window_film_comment_&lt;?php echo $row_window_film['goods_chk_window_film_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A33" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="14" t="str">
+      <c r="C33" s="27" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_window_glass_comment</v>
       </c>
-      <c r="D33" s="14" t="str">
+      <c r="D33" s="27" t="str">
         <f t="shared" si="1"/>
         <v>chk_window_glass</v>
       </c>
-      <c r="E33" s="14" t="str">
+      <c r="E33" s="27" t="str">
         <f t="shared" si="2"/>
         <v>'window_glass'</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="14" t="str">
+      <c r="G33" s="27" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_window_glass_comment_&lt;?php echo $row_window_glass['goods_chk_window_glass_id']; ?&gt;' id='com_window_glass_comment_&lt;?php echo $row_window_glass['goods_chk_window_glass_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:7" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="14" t="str">
+      <c r="C34" s="11" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_windshield_comment</v>
       </c>
-      <c r="D34" s="14" t="str">
+      <c r="D34" s="11" t="str">
         <f t="shared" si="1"/>
         <v>chk_windshield</v>
       </c>
-      <c r="E34" s="14" t="str">
+      <c r="E34" s="11" t="str">
         <f t="shared" si="2"/>
         <v>'windshield'</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="F34" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="G34" s="14" t="str">
+      <c r="G34" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_windshield_comment_&lt;?php echo $row_windshield['goods_chk_windshield_id']; ?&gt;' id='com_windshield_comment_&lt;?php echo $row_windshield['goods_chk_windshield_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="17.5" x14ac:dyDescent="0.45">
-      <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19" t="s">
+    <row r="35" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
+      <c r="A35" s="32"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="19"/>
-      <c r="F35" s="22" t="s">
+      <c r="E35" s="33"/>
+      <c r="F35" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="3"/>
+      <c r="G35" s="35"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G35">
@@ -1906,6 +1984,106 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEDE7D1-C207-48D5-A105-1878DAD4FE7D}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="13">
+        <v>1</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="D1" s="13">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C3" s="15"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C8" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C2:C8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{239AD440-FD70-4C84-98EE-0202AFD4F8AC}">
   <dimension ref="A2:Q38"/>
   <sheetViews>
@@ -1925,358 +2103,358 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="26" x14ac:dyDescent="0.6">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="6">
         <v>5000</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="L5" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="P5" s="12">
+      <c r="P5" s="9">
         <f>B5</f>
         <v>5000</v>
       </c>
-      <c r="Q5" s="6" t="s">
+      <c r="Q5" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>120</v>
       </c>
       <c r="B6">
         <v>0.5</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="3">
         <v>1</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="5">
         <f>B5</f>
         <v>5000</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="5">
         <f>B5*$B$6%</f>
         <v>25</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="5">
         <f>F6+G6</f>
         <v>5025</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="3">
         <v>1</v>
       </c>
-      <c r="K6" s="8">
+      <c r="K6" s="5">
         <f>$B$5</f>
         <v>5000</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="5">
         <f>$K$6*$P$7%</f>
         <v>975</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="5">
         <f>K6+L6</f>
         <v>5975</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="3" t="s">
         <v>105</v>
       </c>
       <c r="P6">
         <v>0.65</v>
       </c>
-      <c r="Q6" s="24" t="s">
+      <c r="Q6" s="16" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <f>B6*7</f>
         <v>3.5</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="E7" s="6">
+      <c r="C7" s="19"/>
+      <c r="E7" s="3">
         <v>2</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <f>H6</f>
         <v>5025</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <f>F7*$B$6%</f>
         <v>25.125</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <f>F7+G7</f>
         <v>5050.125</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="3">
         <v>2</v>
       </c>
-      <c r="K7" s="8">
+      <c r="K7" s="5">
         <f t="shared" ref="K7:K35" si="0">$B$5</f>
         <v>5000</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="5">
         <f t="shared" ref="L7:L35" si="1">$K$6*$P$7%</f>
         <v>975</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="5">
         <f>K7+L7</f>
         <v>5975</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="3">
         <f>P6*30</f>
         <v>19.5</v>
       </c>
-      <c r="Q7" s="25"/>
+      <c r="Q7" s="17"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <f>B6*30</f>
         <v>15</v>
       </c>
-      <c r="C8" s="27"/>
-      <c r="E8" s="6">
+      <c r="C8" s="19"/>
+      <c r="E8" s="3">
         <v>3</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <f t="shared" ref="F8:F35" si="2">H7</f>
         <v>5050.125</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="5">
         <f t="shared" ref="G8:G35" si="3">F8*$B$6%</f>
         <v>25.250624999999999</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="5">
         <f>F8+G8</f>
         <v>5075.3756249999997</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="3">
         <v>3</v>
       </c>
-      <c r="K8" s="8">
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="5">
         <f>K8+L8</f>
         <v>5975</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="3">
         <f>P6*365</f>
         <v>237.25</v>
       </c>
-      <c r="Q8" s="26"/>
+      <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <f>B6*365</f>
         <v>182.5</v>
       </c>
-      <c r="C9" s="27"/>
-      <c r="E9" s="6">
+      <c r="C9" s="19"/>
+      <c r="E9" s="3">
         <v>4</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <f t="shared" si="2"/>
         <v>5075.3756249999997</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="5">
         <f t="shared" si="3"/>
         <v>25.376878124999998</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="5">
         <f t="shared" ref="H9:H17" si="4">F9+G9</f>
         <v>5100.7525031249997</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="3">
         <v>4</v>
       </c>
-      <c r="K9" s="8">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="5">
         <f t="shared" ref="M9:M35" si="5">K9+L9</f>
         <v>5975</v>
       </c>
-      <c r="O9" s="6" t="s">
+      <c r="O9" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="6">
         <v>30</v>
       </c>
-      <c r="Q9" s="6" t="s">
+      <c r="Q9" s="3" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="6">
         <v>30</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="3">
         <v>5</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <f t="shared" si="2"/>
         <v>5100.7525031249997</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="5">
         <f t="shared" si="3"/>
         <v>25.503762515624999</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="5">
         <f t="shared" si="4"/>
         <v>5126.2562656406244</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="3">
         <v>5</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E11" s="6">
+      <c r="E11" s="3">
         <v>6</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <f t="shared" si="2"/>
         <v>5126.2562656406244</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="5">
         <f t="shared" si="3"/>
         <v>25.631281328203123</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="5">
         <f t="shared" si="4"/>
         <v>5151.8875469688273</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="3">
         <v>6</v>
       </c>
-      <c r="K11" s="8">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E12" s="6">
+      <c r="E12" s="3">
         <v>7</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <f t="shared" si="2"/>
         <v>5151.8875469688273</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <f t="shared" si="3"/>
         <v>25.759437734844138</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <f t="shared" si="4"/>
         <v>5177.6469847036715</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="3">
         <v>7</v>
       </c>
-      <c r="K12" s="8">
+      <c r="K12" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
@@ -2288,33 +2466,33 @@
       <c r="B13">
         <v>10</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="3">
         <v>8</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="5">
         <f t="shared" si="2"/>
         <v>5177.6469847036715</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="5">
         <f t="shared" si="3"/>
         <v>25.888234923518358</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="5">
         <f t="shared" si="4"/>
         <v>5203.5352196271897</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="3">
         <v>8</v>
       </c>
-      <c r="K13" s="8">
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
@@ -2327,33 +2505,33 @@
         <f>B13/30</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="3">
         <v>9</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="5">
         <f t="shared" si="2"/>
         <v>5203.5352196271897</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="5">
         <f t="shared" si="3"/>
         <v>26.017676098135951</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="5">
         <f t="shared" si="4"/>
         <v>5229.5528957253255</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="3">
         <v>9</v>
       </c>
-      <c r="K14" s="8">
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
@@ -2366,673 +2544,673 @@
         <f>B13/365</f>
         <v>2.7397260273972601E-2</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="3">
         <v>10</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <f t="shared" si="2"/>
         <v>5229.5528957253255</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <f t="shared" si="3"/>
         <v>26.147764478626627</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <f t="shared" si="4"/>
         <v>5255.7006602039519</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="3">
         <v>10</v>
       </c>
-      <c r="K15" s="8">
+      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="E16" s="6">
+      <c r="E16" s="3">
         <v>11</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="5">
         <f t="shared" si="2"/>
         <v>5255.7006602039519</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="5">
         <f t="shared" si="3"/>
         <v>26.278503301019761</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="5">
         <f t="shared" si="4"/>
         <v>5281.9791635049714</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="3">
         <v>11</v>
       </c>
-      <c r="K16" s="8">
+      <c r="K16" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="17" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <v>12</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="7">
         <f t="shared" si="2"/>
         <v>5281.9791635049714</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="7">
         <f t="shared" si="3"/>
         <v>26.409895817524859</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="7">
         <f t="shared" si="4"/>
         <v>5308.389059322496</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="8">
         <v>12</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="7">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L17" s="10">
+      <c r="L17" s="7">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M17" s="10">
+      <c r="M17" s="7">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="18" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E18" s="6">
+      <c r="E18" s="3">
         <v>13</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="5">
         <f t="shared" si="2"/>
         <v>5308.389059322496</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="5">
         <f t="shared" si="3"/>
         <v>26.541945296612482</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="5">
         <f t="shared" ref="H18:H35" si="6">F18+G18</f>
         <v>5334.9310046191085</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="3">
         <v>13</v>
       </c>
-      <c r="K18" s="8">
+      <c r="K18" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="19" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E19" s="6">
+      <c r="E19" s="3">
         <v>14</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <f t="shared" si="2"/>
         <v>5334.9310046191085</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <f t="shared" si="3"/>
         <v>26.674655023095543</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <f t="shared" si="6"/>
         <v>5361.605659642204</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="3">
         <v>14</v>
       </c>
-      <c r="K19" s="8">
+      <c r="K19" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="20" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E20" s="6">
+      <c r="E20" s="3">
         <v>15</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="5">
         <f t="shared" si="2"/>
         <v>5361.605659642204</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="5">
         <f t="shared" si="3"/>
         <v>26.808028298211021</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="5">
         <f t="shared" si="6"/>
         <v>5388.413687940415</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="3">
         <v>15</v>
       </c>
-      <c r="K20" s="8">
+      <c r="K20" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="21" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E21" s="6">
+      <c r="E21" s="3">
         <v>16</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="5">
         <f t="shared" si="2"/>
         <v>5388.413687940415</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="5">
         <f t="shared" si="3"/>
         <v>26.942068439702076</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H21" s="5">
         <f t="shared" si="6"/>
         <v>5415.3557563801169</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="3">
         <v>16</v>
       </c>
-      <c r="K21" s="8">
+      <c r="K21" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="22" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E22" s="6">
+      <c r="E22" s="3">
         <v>17</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="5">
         <f t="shared" si="2"/>
         <v>5415.3557563801169</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="5">
         <f t="shared" si="3"/>
         <v>27.076778781900586</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H22" s="5">
         <f t="shared" si="6"/>
         <v>5442.4325351620173</v>
       </c>
-      <c r="J22" s="6">
+      <c r="J22" s="3">
         <v>17</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K22" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="23" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E23" s="6">
+      <c r="E23" s="3">
         <v>18</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="5">
         <f t="shared" si="2"/>
         <v>5442.4325351620173</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="5">
         <f t="shared" si="3"/>
         <v>27.212162675810088</v>
       </c>
-      <c r="H23" s="8">
+      <c r="H23" s="5">
         <f t="shared" si="6"/>
         <v>5469.6446978378272</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="3">
         <v>18</v>
       </c>
-      <c r="K23" s="8">
+      <c r="K23" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="24" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E24" s="6">
+      <c r="E24" s="3">
         <v>19</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="5">
         <f t="shared" si="2"/>
         <v>5469.6446978378272</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="5">
         <f t="shared" si="3"/>
         <v>27.348223489189138</v>
       </c>
-      <c r="H24" s="8">
+      <c r="H24" s="5">
         <f t="shared" si="6"/>
         <v>5496.9929213270161</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="3">
         <v>19</v>
       </c>
-      <c r="K24" s="8">
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="25" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E25" s="6">
+      <c r="E25" s="3">
         <v>20</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="5">
         <f t="shared" si="2"/>
         <v>5496.9929213270161</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="5">
         <f t="shared" si="3"/>
         <v>27.484964606635081</v>
       </c>
-      <c r="H25" s="8">
+      <c r="H25" s="5">
         <f t="shared" si="6"/>
         <v>5524.4778859336511</v>
       </c>
-      <c r="J25" s="6">
+      <c r="J25" s="3">
         <v>20</v>
       </c>
-      <c r="K25" s="8">
+      <c r="K25" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="26" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E26" s="6">
+      <c r="E26" s="3">
         <v>21</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="5">
         <f t="shared" si="2"/>
         <v>5524.4778859336511</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="5">
         <f t="shared" si="3"/>
         <v>27.622389429668257</v>
       </c>
-      <c r="H26" s="8">
+      <c r="H26" s="5">
         <f t="shared" si="6"/>
         <v>5552.1002753633193</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="3">
         <v>21</v>
       </c>
-      <c r="K26" s="8">
+      <c r="K26" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="27" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E27" s="6">
+      <c r="E27" s="3">
         <v>22</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="5">
         <f t="shared" si="2"/>
         <v>5552.1002753633193</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="5">
         <f t="shared" si="3"/>
         <v>27.760501376816595</v>
       </c>
-      <c r="H27" s="8">
+      <c r="H27" s="5">
         <f t="shared" si="6"/>
         <v>5579.8607767401363</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="3">
         <v>22</v>
       </c>
-      <c r="K27" s="8">
+      <c r="K27" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="28" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E28" s="6">
+      <c r="E28" s="3">
         <v>23</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="5">
         <f t="shared" si="2"/>
         <v>5579.8607767401363</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="5">
         <f t="shared" si="3"/>
         <v>27.899303883700682</v>
       </c>
-      <c r="H28" s="8">
+      <c r="H28" s="5">
         <f t="shared" si="6"/>
         <v>5607.760080623837</v>
       </c>
-      <c r="J28" s="6">
+      <c r="J28" s="3">
         <v>23</v>
       </c>
-      <c r="K28" s="8">
+      <c r="K28" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="29" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E29" s="6">
+      <c r="E29" s="3">
         <v>24</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="5">
         <f t="shared" si="2"/>
         <v>5607.760080623837</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G29" s="5">
         <f t="shared" si="3"/>
         <v>28.038800403119186</v>
       </c>
-      <c r="H29" s="8">
+      <c r="H29" s="5">
         <f t="shared" si="6"/>
         <v>5635.7988810269562</v>
       </c>
-      <c r="J29" s="6">
+      <c r="J29" s="3">
         <v>24</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="30" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E30" s="6">
+      <c r="E30" s="3">
         <v>25</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="5">
         <f t="shared" si="2"/>
         <v>5635.7988810269562</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G30" s="5">
         <f t="shared" si="3"/>
         <v>28.17899440513478</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H30" s="5">
         <f t="shared" si="6"/>
         <v>5663.9778754320914</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="3">
         <v>25</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="31" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E31" s="6">
+      <c r="E31" s="3">
         <v>26</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="5">
         <f t="shared" si="2"/>
         <v>5663.9778754320914</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G31" s="5">
         <f t="shared" si="3"/>
         <v>28.319889377160457</v>
       </c>
-      <c r="H31" s="8">
+      <c r="H31" s="5">
         <f t="shared" si="6"/>
         <v>5692.2977648092519</v>
       </c>
-      <c r="J31" s="6">
+      <c r="J31" s="3">
         <v>26</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="32" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E32" s="6">
+      <c r="E32" s="3">
         <v>27</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="5">
         <f t="shared" si="2"/>
         <v>5692.2977648092519</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G32" s="5">
         <f t="shared" si="3"/>
         <v>28.46148882404626</v>
       </c>
-      <c r="H32" s="8">
+      <c r="H32" s="5">
         <f t="shared" si="6"/>
         <v>5720.7592536332986</v>
       </c>
-      <c r="J32" s="6">
+      <c r="J32" s="3">
         <v>27</v>
       </c>
-      <c r="K32" s="8">
+      <c r="K32" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="33" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E33" s="6">
+      <c r="E33" s="3">
         <v>28</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="5">
         <f t="shared" si="2"/>
         <v>5720.7592536332986</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G33" s="5">
         <f t="shared" si="3"/>
         <v>28.603796268166494</v>
       </c>
-      <c r="H33" s="8">
+      <c r="H33" s="5">
         <f t="shared" si="6"/>
         <v>5749.3630499014653</v>
       </c>
-      <c r="J33" s="6">
+      <c r="J33" s="3">
         <v>28</v>
       </c>
-      <c r="K33" s="8">
+      <c r="K33" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="34" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E34" s="6">
+      <c r="E34" s="3">
         <v>29</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="5">
         <f t="shared" si="2"/>
         <v>5749.3630499014653</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G34" s="5">
         <f t="shared" si="3"/>
         <v>28.746815249507328</v>
       </c>
-      <c r="H34" s="8">
+      <c r="H34" s="5">
         <f t="shared" si="6"/>
         <v>5778.1098651509728</v>
       </c>
-      <c r="J34" s="6">
+      <c r="J34" s="3">
         <v>29</v>
       </c>
-      <c r="K34" s="8">
+      <c r="K34" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L34" s="8">
+      <c r="L34" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M34" s="8">
+      <c r="M34" s="5">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
     </row>
     <row r="35" spans="5:13" x14ac:dyDescent="0.35">
-      <c r="E35" s="6">
+      <c r="E35" s="3">
         <v>30</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="5">
         <f t="shared" si="2"/>
         <v>5778.1098651509728</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G35" s="5">
         <f t="shared" si="3"/>
         <v>28.890549325754865</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="7">
         <f t="shared" si="6"/>
         <v>5807.0004144767281</v>
       </c>
-      <c r="J35" s="6">
+      <c r="J35" s="3">
         <v>30</v>
       </c>
-      <c r="K35" s="8">
+      <c r="K35" s="5">
         <f t="shared" si="0"/>
         <v>5000</v>
       </c>
-      <c r="L35" s="8">
+      <c r="L35" s="5">
         <f t="shared" si="1"/>
         <v>975</v>
       </c>
-      <c r="M35" s="10">
+      <c r="M35" s="7">
         <f t="shared" si="5"/>
         <v>5975</v>
       </c>
@@ -3041,14 +3219,14 @@
       <c r="G37" t="s">
         <v>111</v>
       </c>
-      <c r="H37" s="5">
+      <c r="H37" s="2">
         <f>H35/B10</f>
         <v>193.56668048255762</v>
       </c>
       <c r="L37" t="s">
         <v>111</v>
       </c>
-      <c r="M37" s="5">
+      <c r="M37" s="2">
         <f>M35/P9</f>
         <v>199.16666666666666</v>
       </c>
@@ -3057,14 +3235,14 @@
       <c r="G38" t="s">
         <v>117</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="2">
         <f>H35-F6</f>
         <v>807.00041447672811</v>
       </c>
       <c r="L38" t="s">
         <v>117</v>
       </c>
-      <c r="M38" s="5">
+      <c r="M38" s="2">
         <f>M35-K6</f>
         <v>975</v>
       </c>

--- a/source/source.xlsx
+++ b/source/source.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\wecar\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F57F7FE2-8465-46C8-BE91-D4A7C4466F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799FF010-2962-4F54-ADEF-E81634B38180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1D0D4A28-9C98-43E5-A704-1508D3CF9126}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{1D0D4A28-9C98-43E5-A704-1508D3CF9126}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="141">
   <si>
     <t>ภายนอก</t>
   </si>
@@ -454,6 +455,12 @@
   </si>
   <si>
     <t>return id to insert spec&amp;car check</t>
+  </si>
+  <si>
+    <t>interest</t>
+  </si>
+  <si>
+    <t>month</t>
   </si>
 </sst>
 </file>
@@ -666,6 +673,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -687,26 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,7 +1030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95E438FC-4BAC-4F89-A6B5-4F8919550379}">
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
@@ -1039,366 +1046,366 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="26" t="str">
+      <c r="C1" s="19" t="str">
         <f t="shared" ref="C1:C34" si="0">"goods_chk_"&amp;B1&amp;"_comment"</f>
         <v>goods_chk_alloy_comment</v>
       </c>
-      <c r="D1" s="26" t="str">
+      <c r="D1" s="19" t="str">
         <f t="shared" ref="D1:D34" si="1">"chk_"&amp;B1</f>
         <v>chk_alloy</v>
       </c>
-      <c r="E1" s="26" t="str">
+      <c r="E1" s="19" t="str">
         <f t="shared" ref="E1:E34" si="2">"'"&amp;B1&amp;"'"</f>
         <v>'alloy'</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="27" t="str">
+      <c r="G1" s="20" t="str">
         <f>"&lt;input type='hidden' name='com_"&amp;B1&amp;"_comment_&lt;?php echo $row_"&amp;B1&amp;"['goods_chk_"&amp;B1&amp;"_id']; ?&gt;' id='com_"&amp;B1&amp;"_comment_&lt;?php echo $row_"&amp;B1&amp;"['goods_chk_"&amp;B1&amp;"_id']; ?&gt;' value=''&gt;"</f>
         <v>&lt;input type='hidden' name='com_alloy_comment_&lt;?php echo $row_alloy['goods_chk_alloy_id']; ?&gt;' id='com_alloy_comment_&lt;?php echo $row_alloy['goods_chk_alloy_id']; ?&gt;' value=''&gt;</v>
       </c>
-      <c r="H1" s="24"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="27" t="str">
+      <c r="C2" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_brand_symbol_comment</v>
       </c>
-      <c r="D2" s="27" t="str">
+      <c r="D2" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_brand_symbol</v>
       </c>
-      <c r="E2" s="27" t="str">
+      <c r="E2" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'car_brand_symbol'</v>
       </c>
-      <c r="F2" s="30" t="s">
+      <c r="F2" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="27" t="str">
+      <c r="G2" s="20" t="str">
         <f t="shared" ref="G2:G34" si="3">"&lt;input type='hidden' name='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' id='com_"&amp;B2&amp;"_comment_&lt;?php echo $row_"&amp;B2&amp;"['goods_chk_"&amp;B2&amp;"_id']; ?&gt;' value=''&gt;"</f>
         <v>&lt;input type='hidden' name='com_car_brand_symbol_comment_&lt;?php echo $row_car_brand_symbol['goods_chk_car_brand_symbol_id']; ?&gt;' id='com_car_brand_symbol_comment_&lt;?php echo $row_car_brand_symbol['goods_chk_car_brand_symbol_id']; ?&gt;' value=''&gt;</v>
       </c>
-      <c r="H2" s="24"/>
+      <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="22" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_door_comment</v>
       </c>
-      <c r="D3" s="27" t="str">
+      <c r="D3" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_door</v>
       </c>
-      <c r="E3" s="27" t="str">
+      <c r="E3" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'car_door'</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="G3" s="27" t="str">
+      <c r="G3" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_door_comment_&lt;?php echo $row_car_door['goods_chk_car_door_id']; ?&gt;' id='com_car_door_comment_&lt;?php echo $row_car_door['goods_chk_car_door_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="31" t="str">
+      <c r="C4" s="24" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_floor_comment</v>
       </c>
-      <c r="D4" s="27" t="str">
+      <c r="D4" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_floor</v>
       </c>
-      <c r="E4" s="27" t="str">
+      <c r="E4" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'car_floor'</v>
       </c>
-      <c r="F4" s="30" t="s">
+      <c r="F4" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="G4" s="27" t="str">
+      <c r="G4" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_floor_comment_&lt;?php echo $row_car_floor['goods_chk_car_floor_id']; ?&gt;' id='com_car_floor_comment_&lt;?php echo $row_car_floor['goods_chk_car_floor_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_frame_comment</v>
       </c>
-      <c r="D5" s="27" t="str">
+      <c r="D5" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_frame</v>
       </c>
-      <c r="E5" s="27" t="str">
+      <c r="E5" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'car_frame'</v>
       </c>
-      <c r="F5" s="30" t="s">
+      <c r="F5" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="G5" s="27" t="str">
+      <c r="G5" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_frame_comment_&lt;?php echo $row_car_frame['goods_chk_car_frame_id']; ?&gt;' id='com_car_frame_comment_&lt;?php echo $row_car_frame['goods_chk_car_frame_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_lights_comment</v>
       </c>
-      <c r="D6" s="27" t="str">
+      <c r="D6" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_lights</v>
       </c>
-      <c r="E6" s="27" t="str">
+      <c r="E6" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'car_lights'</v>
       </c>
-      <c r="F6" s="30" t="s">
+      <c r="F6" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="G6" s="27" t="str">
+      <c r="G6" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_lights_comment_&lt;?php echo $row_car_lights['goods_chk_car_lights_id']; ?&gt;' id='com_car_lights_comment_&lt;?php echo $row_car_lights['goods_chk_car_lights_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_car_roof_comment</v>
       </c>
-      <c r="D7" s="27" t="str">
+      <c r="D7" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_car_roof</v>
       </c>
-      <c r="E7" s="27" t="str">
+      <c r="E7" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'car_roof'</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="F7" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="27" t="str">
+      <c r="G7" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_car_roof_comment_&lt;?php echo $row_car_roof['goods_chk_car_roof_id']; ?&gt;' id='com_car_roof_comment_&lt;?php echo $row_car_roof['goods_chk_car_roof_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_ceiling_comment</v>
       </c>
-      <c r="D8" s="27" t="str">
+      <c r="D8" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_ceiling</v>
       </c>
-      <c r="E8" s="27" t="str">
+      <c r="E8" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'ceiling'</v>
       </c>
-      <c r="F8" s="30" t="s">
+      <c r="F8" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="27" t="str">
+      <c r="G8" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ceiling_comment_&lt;?php echo $row_ceiling['goods_chk_ceiling_id']; ?&gt;' id='com_ceiling_comment_&lt;?php echo $row_ceiling['goods_chk_ceiling_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_ceiling_light_comment</v>
       </c>
-      <c r="D9" s="27" t="str">
+      <c r="D9" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_ceiling_light</v>
       </c>
-      <c r="E9" s="27" t="str">
+      <c r="E9" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'ceiling_light'</v>
       </c>
-      <c r="F9" s="30" t="s">
+      <c r="F9" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="27" t="str">
+      <c r="G9" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_ceiling_light_comment_&lt;?php echo $row_ceiling_light['goods_chk_ceiling_light_id']; ?&gt;' id='com_ceiling_light_comment_&lt;?php echo $row_ceiling_light['goods_chk_ceiling_light_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_cooling_system_comment</v>
       </c>
-      <c r="D10" s="27" t="str">
+      <c r="D10" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_cooling_system</v>
       </c>
-      <c r="E10" s="27" t="str">
+      <c r="E10" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'cooling_system'</v>
       </c>
-      <c r="F10" s="30" t="s">
+      <c r="F10" s="23" t="s">
         <v>103</v>
       </c>
-      <c r="G10" s="27" t="str">
+      <c r="G10" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_cooling_system_comment_&lt;?php echo $row_cooling_system['goods_chk_cooling_system_id']; ?&gt;' id='com_cooling_system_comment_&lt;?php echo $row_cooling_system['goods_chk_cooling_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_engine_and_gear_comment</v>
       </c>
-      <c r="D11" s="27" t="str">
+      <c r="D11" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_engine_and_gear</v>
       </c>
-      <c r="E11" s="27" t="str">
+      <c r="E11" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'engine_and_gear'</v>
       </c>
-      <c r="F11" s="30" t="s">
+      <c r="F11" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="27" t="str">
+      <c r="G11" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_engine_and_gear_comment_&lt;?php echo $row_engine_and_gear['goods_chk_engine_and_gear_id']; ?&gt;' id='com_engine_and_gear_comment_&lt;?php echo $row_engine_and_gear['goods_chk_engine_and_gear_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_engine_compartment_wall_comment</v>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_engine_compartment_wall</v>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'engine_compartment_wall'</v>
       </c>
-      <c r="F12" s="30" t="s">
+      <c r="F12" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="G12" s="27" t="str">
+      <c r="G12" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_engine_compartment_wall_comment_&lt;?php echo $row_engine_compartment_wall['goods_chk_engine_compartment_wall_id']; ?&gt;' id='com_engine_compartment_wall_comment_&lt;?php echo $row_engine_compartment_wall['goods_chk_engine_compartment_wall_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A13" s="28" t="s">
+      <c r="A13" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_entertainment_control_system_comment</v>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_entertainment_control_system</v>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'entertainment_control_system'</v>
       </c>
-      <c r="F13" s="30" t="s">
+      <c r="F13" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="G13" s="27" t="str">
+      <c r="G13" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_entertainment_control_system_comment_&lt;?php echo $row_entertainment_control_system['goods_chk_entertainment_control_system_id']; ?&gt;' id='com_entertainment_control_system_comment_&lt;?php echo $row_entertainment_control_system['goods_chk_entertainment_control_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="14" spans="1:8" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="20" t="str">
+      <c r="C14" s="13" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_fog_lamp_comment</v>
       </c>
@@ -1410,7 +1417,7 @@
         <f t="shared" si="2"/>
         <v>'fog_lamp'</v>
       </c>
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="14" t="s">
         <v>72</v>
       </c>
       <c r="G14" s="11" t="str">
@@ -1419,64 +1426,64 @@
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_front_beam_comment</v>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_front_beam</v>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'front_beam'</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="F15" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="G15" s="27" t="str">
+      <c r="G15" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_beam_comment_&lt;?php echo $row_front_beam['goods_chk_front_beam_id']; ?&gt;' id='com_front_beam_comment_&lt;?php echo $row_front_beam['goods_chk_front_beam_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A16" s="28" t="s">
+      <c r="A16" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_front_fender_comment</v>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_front_fender</v>
       </c>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'front_fender'</v>
       </c>
-      <c r="F16" s="30" t="s">
+      <c r="F16" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="G16" s="27" t="str">
+      <c r="G16" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_front_fender_comment_&lt;?php echo $row_front_fender['goods_chk_front_fender_id']; ?&gt;' id='com_front_fender_comment_&lt;?php echo $row_front_fender['goods_chk_front_fender_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="17" spans="1:8" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
       <c r="A17" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C17" s="11" t="str">
@@ -1491,7 +1498,7 @@
         <f t="shared" si="2"/>
         <v>'front_light'</v>
       </c>
-      <c r="F17" s="21" t="s">
+      <c r="F17" s="14" t="s">
         <v>71</v>
       </c>
       <c r="G17" s="11" t="str">
@@ -1500,145 +1507,145 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="29" t="s">
+      <c r="B18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_handbrake_comment</v>
       </c>
-      <c r="D18" s="27" t="str">
+      <c r="D18" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_handbrake</v>
       </c>
-      <c r="E18" s="27" t="str">
+      <c r="E18" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'handbrake'</v>
       </c>
-      <c r="F18" s="30" t="s">
+      <c r="F18" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G18" s="27" t="str">
+      <c r="G18" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_handbrake_comment_&lt;?php echo $row_handbrake['goods_chk_handbrake_id']; ?&gt;' id='com_handbrake_comment_&lt;?php echo $row_handbrake['goods_chk_handbrake_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_handrail_comment</v>
       </c>
-      <c r="D19" s="27" t="str">
+      <c r="D19" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_handrail</v>
       </c>
-      <c r="E19" s="27" t="str">
+      <c r="E19" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'handrail'</v>
       </c>
-      <c r="F19" s="30" t="s">
+      <c r="F19" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G19" s="27" t="str">
+      <c r="G19" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_handrail_comment_&lt;?php echo $row_handrail['goods_chk_handrail_id']; ?&gt;' id='com_handrail_comment_&lt;?php echo $row_handrail['goods_chk_handrail_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="29" t="s">
+      <c r="B20" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_instrument_panel_comment</v>
       </c>
-      <c r="D20" s="27" t="str">
+      <c r="D20" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_instrument_panel</v>
       </c>
-      <c r="E20" s="27" t="str">
+      <c r="E20" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'instrument_panel'</v>
       </c>
-      <c r="F20" s="30" t="s">
+      <c r="F20" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="27" t="str">
+      <c r="G20" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_instrument_panel_comment_&lt;?php echo $row_instrument_panel['goods_chk_instrument_panel_id']; ?&gt;' id='com_instrument_panel_comment_&lt;?php echo $row_instrument_panel['goods_chk_instrument_panel_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_lock_system_comment</v>
       </c>
-      <c r="D21" s="27" t="str">
+      <c r="D21" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_lock_system</v>
       </c>
-      <c r="E21" s="27" t="str">
+      <c r="E21" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'lock_system'</v>
       </c>
-      <c r="F21" s="30" t="s">
+      <c r="F21" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="27" t="str">
+      <c r="G21" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_lock_system_comment_&lt;?php echo $row_lock_system['goods_chk_lock_system_id']; ?&gt;' id='com_lock_system_comment_&lt;?php echo $row_lock_system['goods_chk_lock_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_multimedia_system_comment</v>
       </c>
-      <c r="D22" s="27" t="str">
+      <c r="D22" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_multimedia_system</v>
       </c>
-      <c r="E22" s="27" t="str">
+      <c r="E22" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'multimedia_system'</v>
       </c>
-      <c r="F22" s="30" t="s">
+      <c r="F22" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="G22" s="27" t="str">
+      <c r="G22" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_multimedia_system_comment_&lt;?php echo $row_multimedia_system['goods_chk_multimedia_system_id']; ?&gt;' id='com_multimedia_system_comment_&lt;?php echo $row_multimedia_system['goods_chk_multimedia_system_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="23" spans="1:8" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
       <c r="A23" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="11" t="str">
@@ -1653,74 +1660,74 @@
         <f t="shared" si="2"/>
         <v>'outside'</v>
       </c>
-      <c r="F23" s="21" t="s">
+      <c r="F23" s="14" t="s">
         <v>70</v>
       </c>
       <c r="G23" s="11" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_outside_comment_&lt;?php echo $row_outside['goods_chk_outside_id']; ?&gt;' id='com_outside_comment_&lt;?php echo $row_outside['goods_chk_outside_id']; ?&gt;' value=''&gt;</v>
       </c>
-      <c r="H23" s="23"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_powertrain_comment</v>
       </c>
-      <c r="D24" s="27" t="str">
+      <c r="D24" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_powertrain</v>
       </c>
-      <c r="E24" s="27" t="str">
+      <c r="E24" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'powertrain'</v>
       </c>
-      <c r="F24" s="30" t="s">
+      <c r="F24" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="27" t="str">
+      <c r="G24" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_powertrain_comment_&lt;?php echo $row_powertrain['goods_chk_powertrain_id']; ?&gt;' id='com_powertrain_comment_&lt;?php echo $row_powertrain['goods_chk_powertrain_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A25" s="28" t="s">
+      <c r="A25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_rear_fender_comment</v>
       </c>
-      <c r="D25" s="27" t="str">
+      <c r="D25" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_rear_fender</v>
       </c>
-      <c r="E25" s="27" t="str">
+      <c r="E25" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'rear_fender'</v>
       </c>
-      <c r="F25" s="30" t="s">
+      <c r="F25" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="G25" s="27" t="str">
+      <c r="G25" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_rear_fender_comment_&lt;?php echo $row_rear_fender['goods_chk_rear_fender_id']; ?&gt;' id='com_rear_fender_comment_&lt;?php echo $row_rear_fender['goods_chk_rear_fender_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="26" spans="1:8" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
       <c r="A26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C26" s="11" t="str">
@@ -1735,7 +1742,7 @@
         <f t="shared" si="2"/>
         <v>'ruby_bumper'</v>
       </c>
-      <c r="F26" s="21" t="s">
+      <c r="F26" s="14" t="s">
         <v>73</v>
       </c>
       <c r="G26" s="11" t="str">
@@ -1744,199 +1751,199 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_seat_comment</v>
       </c>
-      <c r="D27" s="27" t="str">
+      <c r="D27" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_seat</v>
       </c>
-      <c r="E27" s="27" t="str">
+      <c r="E27" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'seat'</v>
       </c>
-      <c r="F27" s="30" t="s">
+      <c r="F27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="27" t="str">
+      <c r="G27" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_seat_comment_&lt;?php echo $row_seat['goods_chk_seat_id']; ?&gt;' id='com_seat_comment_&lt;?php echo $row_seat['goods_chk_seat_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_shock_absorber_comment</v>
       </c>
-      <c r="D28" s="27" t="str">
+      <c r="D28" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_shock_absorber</v>
       </c>
-      <c r="E28" s="27" t="str">
+      <c r="E28" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'shock_absorber'</v>
       </c>
-      <c r="F28" s="30" t="s">
+      <c r="F28" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G28" s="27" t="str">
+      <c r="G28" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_shock_absorber_comment_&lt;?php echo $row_shock_absorber['goods_chk_shock_absorber_id']; ?&gt;' id='com_shock_absorber_comment_&lt;?php echo $row_shock_absorber['goods_chk_shock_absorber_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_side_mirror_comment</v>
       </c>
-      <c r="D29" s="27" t="str">
+      <c r="D29" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_side_mirror</v>
       </c>
-      <c r="E29" s="27" t="str">
+      <c r="E29" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'side_mirror'</v>
       </c>
-      <c r="F29" s="30" t="s">
+      <c r="F29" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="27" t="str">
+      <c r="G29" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_side_mirror_comment_&lt;?php echo $row_side_mirror['goods_chk_side_mirror_id']; ?&gt;' id='com_side_mirror_comment_&lt;?php echo $row_side_mirror['goods_chk_side_mirror_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_speed_meter_comment</v>
       </c>
-      <c r="D30" s="27" t="str">
+      <c r="D30" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_speed_meter</v>
       </c>
-      <c r="E30" s="27" t="str">
+      <c r="E30" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'speed_meter'</v>
       </c>
-      <c r="F30" s="30" t="s">
+      <c r="F30" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="27" t="str">
+      <c r="G30" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_speed_meter_comment_&lt;?php echo $row_speed_meter['goods_chk_speed_meter_id']; ?&gt;' id='com_speed_meter_comment_&lt;?php echo $row_speed_meter['goods_chk_speed_meter_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="27" t="str">
+      <c r="C31" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_tire_comment</v>
       </c>
-      <c r="D31" s="27" t="str">
+      <c r="D31" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_tire</v>
       </c>
-      <c r="E31" s="27" t="str">
+      <c r="E31" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'tire'</v>
       </c>
-      <c r="F31" s="30" t="s">
+      <c r="F31" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="G31" s="27" t="str">
+      <c r="G31" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_tire_comment_&lt;?php echo $row_tire['goods_chk_tire_id']; ?&gt;' id='com_tire_comment_&lt;?php echo $row_tire['goods_chk_tire_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C32" s="27" t="str">
+      <c r="C32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_window_film_comment</v>
       </c>
-      <c r="D32" s="27" t="str">
+      <c r="D32" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_window_film</v>
       </c>
-      <c r="E32" s="27" t="str">
+      <c r="E32" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'window_film'</v>
       </c>
-      <c r="F32" s="30" t="s">
+      <c r="F32" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="G32" s="27" t="str">
+      <c r="G32" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_window_film_comment_&lt;?php echo $row_window_film['goods_chk_window_film_id']; ?&gt;' id='com_window_film_comment_&lt;?php echo $row_window_film['goods_chk_window_film_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="27" t="str">
+      <c r="C33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>goods_chk_window_glass_comment</v>
       </c>
-      <c r="D33" s="27" t="str">
+      <c r="D33" s="20" t="str">
         <f t="shared" si="1"/>
         <v>chk_window_glass</v>
       </c>
-      <c r="E33" s="27" t="str">
+      <c r="E33" s="20" t="str">
         <f t="shared" si="2"/>
         <v>'window_glass'</v>
       </c>
-      <c r="F33" s="30" t="s">
+      <c r="F33" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="G33" s="27" t="str">
+      <c r="G33" s="20" t="str">
         <f t="shared" si="3"/>
         <v>&lt;input type='hidden' name='com_window_glass_comment_&lt;?php echo $row_window_glass['goods_chk_window_glass_id']; ?&gt;' id='com_window_glass_comment_&lt;?php echo $row_window_glass['goods_chk_window_glass_id']; ?&gt;' value=''&gt;</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="22" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
+    <row r="34" spans="1:7" s="15" customFormat="1" ht="19.5" x14ac:dyDescent="0.65">
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="13" t="s">
         <v>64</v>
       </c>
       <c r="C34" s="11" t="str">
@@ -1951,7 +1958,7 @@
         <f t="shared" si="2"/>
         <v>'windshield'</v>
       </c>
-      <c r="F34" s="21" t="s">
+      <c r="F34" s="14" t="s">
         <v>74</v>
       </c>
       <c r="G34" s="11" t="str">
@@ -1960,19 +1967,19 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="19.5" x14ac:dyDescent="0.65">
-      <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33" t="s">
+      <c r="A35" s="25"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="33" t="s">
+      <c r="D35" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="G35" s="35"/>
+      <c r="G35" s="28"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G35">
@@ -1998,14 +2005,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="13">
+      <c r="A1" s="29">
         <v>1</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="D1" s="13">
+      <c r="B1" s="29"/>
+      <c r="D1" s="29">
         <v>2</v>
       </c>
-      <c r="E1" s="13"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -2014,7 +2021,7 @@
       <c r="B2" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="30" t="s">
         <v>138</v>
       </c>
     </row>
@@ -2025,7 +2032,7 @@
       <c r="B3" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="15"/>
+      <c r="C3" s="31"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -2034,7 +2041,7 @@
       <c r="B4" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="15"/>
+      <c r="C4" s="31"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -2043,7 +2050,7 @@
       <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="15"/>
+      <c r="C5" s="31"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -2052,7 +2059,7 @@
       <c r="B6" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="15"/>
+      <c r="C6" s="31"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -2061,7 +2068,7 @@
       <c r="B7" t="s">
         <v>135</v>
       </c>
-      <c r="C7" s="15"/>
+      <c r="C7" s="31"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
@@ -2070,7 +2077,7 @@
       <c r="B8" t="s">
         <v>137</v>
       </c>
-      <c r="C8" s="15"/>
+      <c r="C8" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2166,7 +2173,7 @@
       <c r="B6">
         <v>0.5</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="35" t="s">
         <v>114</v>
       </c>
       <c r="E6" s="3">
@@ -2205,7 +2212,7 @@
       <c r="P6">
         <v>0.65</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="Q6" s="32" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2217,7 +2224,7 @@
         <f>B6*7</f>
         <v>3.5</v>
       </c>
-      <c r="C7" s="19"/>
+      <c r="C7" s="35"/>
       <c r="E7" s="3">
         <v>2</v>
       </c>
@@ -2255,7 +2262,7 @@
         <f>P6*30</f>
         <v>19.5</v>
       </c>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="33"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
@@ -2265,7 +2272,7 @@
         <f>B6*30</f>
         <v>15</v>
       </c>
-      <c r="C8" s="19"/>
+      <c r="C8" s="35"/>
       <c r="E8" s="3">
         <v>3</v>
       </c>
@@ -2303,7 +2310,7 @@
         <f>P6*365</f>
         <v>237.25</v>
       </c>
-      <c r="Q8" s="18"/>
+      <c r="Q8" s="34"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
@@ -2313,7 +2320,7 @@
         <f>B6*365</f>
         <v>182.5</v>
       </c>
-      <c r="C9" s="19"/>
+      <c r="C9" s="35"/>
       <c r="E9" s="3">
         <v>4</v>
       </c>
@@ -3254,4 +3261,52 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDB0FD8D-D159-4327-8FEC-DE0E2BCB87C0}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B1">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4">
+        <f>B3*12</f>
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>